--- a/Data/StaffingRetentionCC.xlsx
+++ b/Data/StaffingRetentionCC.xlsx
@@ -162,7 +162,7 @@
     <t>Why are you considering leaving your program?</t>
   </si>
   <si>
-    <t>[Free Response]</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t>RAPID team</t>
@@ -1228,7 +1228,7 @@
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -1264,7 +1264,7 @@
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="6"/>
